--- a/score.xlsx
+++ b/score.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,139 +551,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1025,13 +1033,13 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.9115044247788" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1052,6 +1060,9 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xlfn.IFS(AND(B2=0,C2=1),-1,AND(B2=1,C2=0),-20,AND(B2=0,C2=0),0,AND(B2=1,C2=1),0)</f>
         <v>0</v>
@@ -1064,6 +1075,9 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xlfn.IFS(AND(B3=0,C3=1),-1,AND(B3=1,C3=0),-20,AND(B3=0,C3=0),0,AND(B3=1,C3=1),0)</f>
         <v>0</v>
@@ -1076,6 +1090,9 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xlfn.IFS(AND(B4=0,C4=1),-1,AND(B4=1,C4=0),-20,AND(B4=0,C4=0),0,AND(B4=1,C4=1),0)</f>
         <v>0</v>
@@ -1088,6 +1105,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xlfn.IFS(AND(B5=0,C5=1),-1,AND(B5=1,C5=0),-20,AND(B5=0,C5=0),0,AND(B5=1,C5=1),0)</f>
         <v>0</v>
@@ -1100,6 +1120,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xlfn.IFS(AND(B6=0,C6=1),-1,AND(B6=1,C6=0),-20,AND(B6=0,C6=0),0,AND(B6=1,C6=1),0)</f>
         <v>0</v>
@@ -1112,6 +1135,9 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xlfn.IFS(AND(B7=0,C7=1),-1,AND(B7=1,C7=0),-20,AND(B7=0,C7=0),0,AND(B7=1,C7=1),0)</f>
         <v>0</v>
@@ -1124,6 +1150,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xlfn.IFS(AND(B8=0,C8=1),-1,AND(B8=1,C8=0),-20,AND(B8=0,C8=0),0,AND(B8=1,C8=1),0)</f>
         <v>0</v>
@@ -1136,6 +1165,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xlfn.IFS(AND(B9=0,C9=1),-1,AND(B9=1,C9=0),-20,AND(B9=0,C9=0),0,AND(B9=1,C9=1),0)</f>
         <v>0</v>
@@ -1148,6 +1180,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(AND(B10=0,C10=1),-1,AND(B10=1,C10=0),-20,AND(B10=0,C10=0),0,AND(B10=1,C10=1),0)</f>
         <v>0</v>
@@ -1160,6 +1195,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(AND(B11=0,C11=1),-1,AND(B11=1,C11=0),-20,AND(B11=0,C11=0),0,AND(B11=1,C11=1),0)</f>
         <v>0</v>
@@ -1172,6 +1210,9 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(AND(B12=0,C12=1),-1,AND(B12=1,C12=0),-20,AND(B12=0,C12=0),0,AND(B12=1,C12=1),0)</f>
         <v>0</v>
@@ -1184,6 +1225,9 @@
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xlfn.IFS(AND(B13=0,C13=1),-1,AND(B13=1,C13=0),-20,AND(B13=0,C13=0),0,AND(B13=1,C13=1),0)</f>
         <v>0</v>
@@ -1196,6 +1240,9 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xlfn.IFS(AND(B14=0,C14=1),-1,AND(B14=1,C14=0),-20,AND(B14=0,C14=0),0,AND(B14=1,C14=1),0)</f>
         <v>0</v>
@@ -1208,6 +1255,9 @@
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(AND(B15=0,C15=1),-1,AND(B15=1,C15=0),-20,AND(B15=0,C15=0),0,AND(B15=1,C15=1),0)</f>
         <v>0</v>
@@ -1220,6 +1270,9 @@
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(AND(B16=0,C16=1),-1,AND(B16=1,C16=0),-20,AND(B16=0,C16=0),0,AND(B16=1,C16=1),0)</f>
         <v>0</v>
@@ -1232,6 +1285,9 @@
       <c r="B17">
         <v>0</v>
       </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
       <c r="D17" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(AND(B17=0,C17=1),-1,AND(B17=1,C17=0),-20,AND(B17=0,C17=0),0,AND(B17=1,C17=1),0)</f>
         <v>0</v>
@@ -1244,6 +1300,9 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xlfn.IFS(AND(B18=0,C18=1),-1,AND(B18=1,C18=0),-20,AND(B18=0,C18=0),0,AND(B18=1,C18=1),0)</f>
         <v>0</v>
@@ -1256,6 +1315,9 @@
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xlfn.IFS(AND(B19=0,C19=1),-1,AND(B19=1,C19=0),-20,AND(B19=0,C19=0),0,AND(B19=1,C19=1),0)</f>
         <v>0</v>
@@ -1268,6 +1330,9 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(AND(B20=0,C20=1),-1,AND(B20=1,C20=0),-20,AND(B20=0,C20=0),0,AND(B20=1,C20=1),0)</f>
         <v>0</v>
@@ -1280,6 +1345,9 @@
       <c r="B21">
         <v>0</v>
       </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xlfn.IFS(AND(B21=0,C21=1),-1,AND(B21=1,C21=0),-20,AND(B21=0,C21=0),0,AND(B21=1,C21=1),0)</f>
         <v>0</v>
@@ -1292,6 +1360,9 @@
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xlfn.IFS(AND(B22=0,C22=1),-1,AND(B22=1,C22=0),-20,AND(B22=0,C22=0),0,AND(B22=1,C22=1),0)</f>
         <v>0</v>
@@ -1304,9 +1375,12 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xlfn.IFS(AND(B23=0,C23=1),-1,AND(B23=1,C23=0),-20,AND(B23=0,C23=0),0,AND(B23=1,C23=1),0)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1316,9 +1390,12 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xlfn.IFS(AND(B24=0,C24=1),-1,AND(B24=1,C24=0),-20,AND(B24=0,C24=0),0,AND(B24=1,C24=1),0)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1328,9 +1405,12 @@
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xlfn.IFS(AND(B25=0,C25=1),-1,AND(B25=1,C25=0),-20,AND(B25=0,C25=0),0,AND(B25=1,C25=1),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1340,6 +1420,9 @@
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xlfn.IFS(AND(B26=0,C26=1),-1,AND(B26=1,C26=0),-20,AND(B26=0,C26=0),0,AND(B26=1,C26=1),0)</f>
         <v>0</v>
@@ -1352,6 +1435,9 @@
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xlfn.IFS(AND(B27=0,C27=1),-1,AND(B27=1,C27=0),-20,AND(B27=0,C27=0),0,AND(B27=1,C27=1),0)</f>
         <v>0</v>
@@ -1364,6 +1450,9 @@
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
       <c r="D28" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(AND(B28=0,C28=1),-1,AND(B28=1,C28=0),-20,AND(B28=0,C28=0),0,AND(B28=1,C28=1),0)</f>
         <v>0</v>
@@ -1376,6 +1465,9 @@
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xlfn.IFS(AND(B29=0,C29=1),-1,AND(B29=1,C29=0),-20,AND(B29=0,C29=0),0,AND(B29=1,C29=1),0)</f>
         <v>0</v>
@@ -1388,6 +1480,9 @@
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xlfn.IFS(AND(B30=0,C30=1),-1,AND(B30=1,C30=0),-20,AND(B30=0,C30=0),0,AND(B30=1,C30=1),0)</f>
         <v>0</v>
@@ -1400,6 +1495,9 @@
       <c r="B31">
         <v>0</v>
       </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xlfn.IFS(AND(B31=0,C31=1),-1,AND(B31=1,C31=0),-20,AND(B31=0,C31=0),0,AND(B31=1,C31=1),0)</f>
         <v>0</v>
@@ -1412,6 +1510,9 @@
       <c r="B32">
         <v>0</v>
       </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xlfn.IFS(AND(B32=0,C32=1),-1,AND(B32=1,C32=0),-20,AND(B32=0,C32=0),0,AND(B32=1,C32=1),0)</f>
         <v>0</v>
@@ -1424,6 +1525,9 @@
       <c r="B33">
         <v>0</v>
       </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
       <c r="D33" cm="1">
         <f t="array" ref="D33">_xlfn.IFS(AND(B33=0,C33=1),-1,AND(B33=1,C33=0),-20,AND(B33=0,C33=0),0,AND(B33=1,C33=1),0)</f>
         <v>0</v>
@@ -1436,6 +1540,9 @@
       <c r="B34">
         <v>0</v>
       </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xlfn.IFS(AND(B34=0,C34=1),-1,AND(B34=1,C34=0),-20,AND(B34=0,C34=0),0,AND(B34=1,C34=1),0)</f>
         <v>0</v>
@@ -1448,6 +1555,9 @@
       <c r="B35">
         <v>0</v>
       </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xlfn.IFS(AND(B35=0,C35=1),-1,AND(B35=1,C35=0),-20,AND(B35=0,C35=0),0,AND(B35=1,C35=1),0)</f>
         <v>0</v>
@@ -1460,6 +1570,9 @@
       <c r="B36">
         <v>0</v>
       </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(AND(B36=0,C36=1),-1,AND(B36=1,C36=0),-20,AND(B36=0,C36=0),0,AND(B36=1,C36=1),0)</f>
         <v>0</v>
@@ -1472,6 +1585,9 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(AND(B37=0,C37=1),-1,AND(B37=1,C37=0),-20,AND(B37=0,C37=0),0,AND(B37=1,C37=1),0)</f>
         <v>0</v>
@@ -1484,6 +1600,9 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xlfn.IFS(AND(B38=0,C38=1),-1,AND(B38=1,C38=0),-20,AND(B38=0,C38=0),0,AND(B38=1,C38=1),0)</f>
         <v>0</v>
@@ -1496,6 +1615,9 @@
       <c r="B39">
         <v>0</v>
       </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xlfn.IFS(AND(B39=0,C39=1),-1,AND(B39=1,C39=0),-20,AND(B39=0,C39=0),0,AND(B39=1,C39=1),0)</f>
         <v>0</v>
@@ -1508,6 +1630,9 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xlfn.IFS(AND(B40=0,C40=1),-1,AND(B40=1,C40=0),-20,AND(B40=0,C40=0),0,AND(B40=1,C40=1),0)</f>
         <v>0</v>
@@ -1520,6 +1645,9 @@
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
       <c r="D41" cm="1">
         <f t="array" ref="D41">_xlfn.IFS(AND(B41=0,C41=1),-1,AND(B41=1,C41=0),-20,AND(B41=0,C41=0),0,AND(B41=1,C41=1),0)</f>
         <v>0</v>
@@ -1532,6 +1660,9 @@
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
       <c r="D42" cm="1">
         <f t="array" ref="D42">_xlfn.IFS(AND(B42=0,C42=1),-1,AND(B42=1,C42=0),-20,AND(B42=0,C42=0),0,AND(B42=1,C42=1),0)</f>
         <v>0</v>
@@ -1544,6 +1675,9 @@
       <c r="B43">
         <v>0</v>
       </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xlfn.IFS(AND(B43=0,C43=1),-1,AND(B43=1,C43=0),-20,AND(B43=0,C43=0),0,AND(B43=1,C43=1),0)</f>
         <v>0</v>
@@ -1556,6 +1690,9 @@
       <c r="B44">
         <v>0</v>
       </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xlfn.IFS(AND(B44=0,C44=1),-1,AND(B44=1,C44=0),-20,AND(B44=0,C44=0),0,AND(B44=1,C44=1),0)</f>
         <v>0</v>
@@ -1568,6 +1705,9 @@
       <c r="B45">
         <v>0</v>
       </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xlfn.IFS(AND(B45=0,C45=1),-1,AND(B45=1,C45=0),-20,AND(B45=0,C45=0),0,AND(B45=1,C45=1),0)</f>
         <v>0</v>
@@ -1580,6 +1720,9 @@
       <c r="B46">
         <v>0</v>
       </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xlfn.IFS(AND(B46=0,C46=1),-1,AND(B46=1,C46=0),-20,AND(B46=0,C46=0),0,AND(B46=1,C46=1),0)</f>
         <v>0</v>
@@ -1592,6 +1735,9 @@
       <c r="B47">
         <v>0</v>
       </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xlfn.IFS(AND(B47=0,C47=1),-1,AND(B47=1,C47=0),-20,AND(B47=0,C47=0),0,AND(B47=1,C47=1),0)</f>
         <v>0</v>
@@ -1604,6 +1750,9 @@
       <c r="B48">
         <v>0</v>
       </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xlfn.IFS(AND(B48=0,C48=1),-1,AND(B48=1,C48=0),-20,AND(B48=0,C48=0),0,AND(B48=1,C48=1),0)</f>
         <v>0</v>
@@ -1616,6 +1765,9 @@
       <c r="B49">
         <v>0</v>
       </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xlfn.IFS(AND(B49=0,C49=1),-1,AND(B49=1,C49=0),-20,AND(B49=0,C49=0),0,AND(B49=1,C49=1),0)</f>
         <v>0</v>
@@ -1628,6 +1780,9 @@
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
       <c r="D50" cm="1">
         <f t="array" ref="D50">_xlfn.IFS(AND(B50=0,C50=1),-1,AND(B50=1,C50=0),-20,AND(B50=0,C50=0),0,AND(B50=1,C50=1),0)</f>
         <v>0</v>
@@ -1640,6 +1795,9 @@
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
       <c r="D51" cm="1">
         <f t="array" ref="D51">_xlfn.IFS(AND(B51=0,C51=1),-1,AND(B51=1,C51=0),-20,AND(B51=0,C51=0),0,AND(B51=1,C51=1),0)</f>
         <v>0</v>
@@ -1652,6 +1810,9 @@
       <c r="B52">
         <v>0</v>
       </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
       <c r="D52" cm="1">
         <f t="array" ref="D52">_xlfn.IFS(AND(B52=0,C52=1),-1,AND(B52=1,C52=0),-20,AND(B52=0,C52=0),0,AND(B52=1,C52=1),0)</f>
         <v>0</v>
@@ -1664,6 +1825,9 @@
       <c r="B53">
         <v>0</v>
       </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
       <c r="D53" cm="1">
         <f t="array" ref="D53">_xlfn.IFS(AND(B53=0,C53=1),-1,AND(B53=1,C53=0),-20,AND(B53=0,C53=0),0,AND(B53=1,C53=1),0)</f>
         <v>0</v>
@@ -1676,6 +1840,9 @@
       <c r="B54">
         <v>0</v>
       </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
       <c r="D54" cm="1">
         <f t="array" ref="D54">_xlfn.IFS(AND(B54=0,C54=1),-1,AND(B54=1,C54=0),-20,AND(B54=0,C54=0),0,AND(B54=1,C54=1),0)</f>
         <v>0</v>
@@ -1688,6 +1855,9 @@
       <c r="B55">
         <v>0</v>
       </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
       <c r="D55" cm="1">
         <f t="array" ref="D55">_xlfn.IFS(AND(B55=0,C55=1),-1,AND(B55=1,C55=0),-20,AND(B55=0,C55=0),0,AND(B55=1,C55=1),0)</f>
         <v>0</v>
@@ -1700,6 +1870,9 @@
       <c r="B56">
         <v>0</v>
       </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
       <c r="D56" cm="1">
         <f t="array" ref="D56">_xlfn.IFS(AND(B56=0,C56=1),-1,AND(B56=1,C56=0),-20,AND(B56=0,C56=0),0,AND(B56=1,C56=1),0)</f>
         <v>0</v>
@@ -1712,6 +1885,9 @@
       <c r="B57">
         <v>0</v>
       </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
       <c r="D57" cm="1">
         <f t="array" ref="D57">_xlfn.IFS(AND(B57=0,C57=1),-1,AND(B57=1,C57=0),-20,AND(B57=0,C57=0),0,AND(B57=1,C57=1),0)</f>
         <v>0</v>
@@ -1724,6 +1900,9 @@
       <c r="B58">
         <v>0</v>
       </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
       <c r="D58" cm="1">
         <f t="array" ref="D58">_xlfn.IFS(AND(B58=0,C58=1),-1,AND(B58=1,C58=0),-20,AND(B58=0,C58=0),0,AND(B58=1,C58=1),0)</f>
         <v>0</v>
@@ -1736,6 +1915,9 @@
       <c r="B59">
         <v>0</v>
       </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
       <c r="D59" cm="1">
         <f t="array" ref="D59">_xlfn.IFS(AND(B59=0,C59=1),-1,AND(B59=1,C59=0),-20,AND(B59=0,C59=0),0,AND(B59=1,C59=1),0)</f>
         <v>0</v>
@@ -1748,6 +1930,9 @@
       <c r="B60">
         <v>0</v>
       </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
       <c r="D60" cm="1">
         <f t="array" ref="D60">_xlfn.IFS(AND(B60=0,C60=1),-1,AND(B60=1,C60=0),-20,AND(B60=0,C60=0),0,AND(B60=1,C60=1),0)</f>
         <v>0</v>
@@ -1760,6 +1945,9 @@
       <c r="B61">
         <v>0</v>
       </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
       <c r="D61" cm="1">
         <f t="array" ref="D61">_xlfn.IFS(AND(B61=0,C61=1),-1,AND(B61=1,C61=0),-20,AND(B61=0,C61=0),0,AND(B61=1,C61=1),0)</f>
         <v>0</v>
@@ -1772,6 +1960,9 @@
       <c r="B62">
         <v>0</v>
       </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
       <c r="D62" cm="1">
         <f t="array" ref="D62">_xlfn.IFS(AND(B62=0,C62=1),-1,AND(B62=1,C62=0),-20,AND(B62=0,C62=0),0,AND(B62=1,C62=1),0)</f>
         <v>0</v>
@@ -1784,6 +1975,9 @@
       <c r="B63">
         <v>0</v>
       </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
       <c r="D63" cm="1">
         <f t="array" ref="D63">_xlfn.IFS(AND(B63=0,C63=1),-1,AND(B63=1,C63=0),-20,AND(B63=0,C63=0),0,AND(B63=1,C63=1),0)</f>
         <v>0</v>
@@ -1796,6 +1990,9 @@
       <c r="B64">
         <v>0</v>
       </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
       <c r="D64" cm="1">
         <f t="array" ref="D64">_xlfn.IFS(AND(B64=0,C64=1),-1,AND(B64=1,C64=0),-20,AND(B64=0,C64=0),0,AND(B64=1,C64=1),0)</f>
         <v>0</v>
@@ -1808,6 +2005,9 @@
       <c r="B65">
         <v>0</v>
       </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
       <c r="D65" cm="1">
         <f t="array" ref="D65">_xlfn.IFS(AND(B65=0,C65=1),-1,AND(B65=1,C65=0),-20,AND(B65=0,C65=0),0,AND(B65=1,C65=1),0)</f>
         <v>0</v>
@@ -1820,6 +2020,9 @@
       <c r="B66">
         <v>0</v>
       </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
       <c r="D66" cm="1">
         <f t="array" ref="D66">_xlfn.IFS(AND(B66=0,C66=1),-1,AND(B66=1,C66=0),-20,AND(B66=0,C66=0),0,AND(B66=1,C66=1),0)</f>
         <v>0</v>
@@ -1832,6 +2035,9 @@
       <c r="B67">
         <v>0</v>
       </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
       <c r="D67" cm="1">
         <f t="array" ref="D67">_xlfn.IFS(AND(B67=0,C67=1),-1,AND(B67=1,C67=0),-20,AND(B67=0,C67=0),0,AND(B67=1,C67=1),0)</f>
         <v>0</v>
@@ -1844,6 +2050,9 @@
       <c r="B68">
         <v>0</v>
       </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
       <c r="D68" cm="1">
         <f t="array" ref="D68">_xlfn.IFS(AND(B68=0,C68=1),-1,AND(B68=1,C68=0),-20,AND(B68=0,C68=0),0,AND(B68=1,C68=1),0)</f>
         <v>0</v>
@@ -1856,6 +2065,9 @@
       <c r="B69">
         <v>0</v>
       </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
       <c r="D69" cm="1">
         <f t="array" ref="D69">_xlfn.IFS(AND(B69=0,C69=1),-1,AND(B69=1,C69=0),-20,AND(B69=0,C69=0),0,AND(B69=1,C69=1),0)</f>
         <v>0</v>
@@ -1868,6 +2080,9 @@
       <c r="B70">
         <v>0</v>
       </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
       <c r="D70" cm="1">
         <f t="array" ref="D70">_xlfn.IFS(AND(B70=0,C70=1),-1,AND(B70=1,C70=0),-20,AND(B70=0,C70=0),0,AND(B70=1,C70=1),0)</f>
         <v>0</v>
@@ -1880,6 +2095,9 @@
       <c r="B71">
         <v>0</v>
       </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
       <c r="D71" cm="1">
         <f t="array" ref="D71">_xlfn.IFS(AND(B71=0,C71=1),-1,AND(B71=1,C71=0),-20,AND(B71=0,C71=0),0,AND(B71=1,C71=1),0)</f>
         <v>0</v>
@@ -1892,6 +2110,9 @@
       <c r="B72">
         <v>0</v>
       </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
       <c r="D72" cm="1">
         <f t="array" ref="D72">_xlfn.IFS(AND(B72=0,C72=1),-1,AND(B72=1,C72=0),-20,AND(B72=0,C72=0),0,AND(B72=1,C72=1),0)</f>
         <v>0</v>
@@ -1904,6 +2125,9 @@
       <c r="B73">
         <v>0</v>
       </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
       <c r="D73" cm="1">
         <f t="array" ref="D73">_xlfn.IFS(AND(B73=0,C73=1),-1,AND(B73=1,C73=0),-20,AND(B73=0,C73=0),0,AND(B73=1,C73=1),0)</f>
         <v>0</v>
@@ -1916,6 +2140,9 @@
       <c r="B74">
         <v>0</v>
       </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
       <c r="D74" cm="1">
         <f t="array" ref="D74">_xlfn.IFS(AND(B74=0,C74=1),-1,AND(B74=1,C74=0),-20,AND(B74=0,C74=0),0,AND(B74=1,C74=1),0)</f>
         <v>0</v>
@@ -1928,6 +2155,9 @@
       <c r="B75">
         <v>0</v>
       </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
       <c r="D75" cm="1">
         <f t="array" ref="D75">_xlfn.IFS(AND(B75=0,C75=1),-1,AND(B75=1,C75=0),-20,AND(B75=0,C75=0),0,AND(B75=1,C75=1),0)</f>
         <v>0</v>
@@ -1940,6 +2170,9 @@
       <c r="B76">
         <v>0</v>
       </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
       <c r="D76" cm="1">
         <f t="array" ref="D76">_xlfn.IFS(AND(B76=0,C76=1),-1,AND(B76=1,C76=0),-20,AND(B76=0,C76=0),0,AND(B76=1,C76=1),0)</f>
         <v>0</v>
@@ -1952,6 +2185,9 @@
       <c r="B77">
         <v>0</v>
       </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
       <c r="D77" cm="1">
         <f t="array" ref="D77">_xlfn.IFS(AND(B77=0,C77=1),-1,AND(B77=1,C77=0),-20,AND(B77=0,C77=0),0,AND(B77=1,C77=1),0)</f>
         <v>0</v>
@@ -1964,6 +2200,9 @@
       <c r="B78">
         <v>0</v>
       </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
       <c r="D78" cm="1">
         <f t="array" ref="D78">_xlfn.IFS(AND(B78=0,C78=1),-1,AND(B78=1,C78=0),-20,AND(B78=0,C78=0),0,AND(B78=1,C78=1),0)</f>
         <v>0</v>
@@ -1976,6 +2215,9 @@
       <c r="B79">
         <v>0</v>
       </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
       <c r="D79" cm="1">
         <f t="array" ref="D79">_xlfn.IFS(AND(B79=0,C79=1),-1,AND(B79=1,C79=0),-20,AND(B79=0,C79=0),0,AND(B79=1,C79=1),0)</f>
         <v>0</v>
@@ -1988,6 +2230,9 @@
       <c r="B80">
         <v>0</v>
       </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
       <c r="D80" cm="1">
         <f t="array" ref="D80">_xlfn.IFS(AND(B80=0,C80=1),-1,AND(B80=1,C80=0),-20,AND(B80=0,C80=0),0,AND(B80=1,C80=1),0)</f>
         <v>0</v>
@@ -2000,6 +2245,9 @@
       <c r="B81">
         <v>0</v>
       </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
       <c r="D81" cm="1">
         <f t="array" ref="D81">_xlfn.IFS(AND(B81=0,C81=1),-1,AND(B81=1,C81=0),-20,AND(B81=0,C81=0),0,AND(B81=1,C81=1),0)</f>
         <v>0</v>
@@ -2012,6 +2260,9 @@
       <c r="B82">
         <v>0</v>
       </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
       <c r="D82" cm="1">
         <f t="array" ref="D82">_xlfn.IFS(AND(B82=0,C82=1),-1,AND(B82=1,C82=0),-20,AND(B82=0,C82=0),0,AND(B82=1,C82=1),0)</f>
         <v>0</v>
@@ -2024,6 +2275,9 @@
       <c r="B83">
         <v>0</v>
       </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
       <c r="D83" cm="1">
         <f t="array" ref="D83">_xlfn.IFS(AND(B83=0,C83=1),-1,AND(B83=1,C83=0),-20,AND(B83=0,C83=0),0,AND(B83=1,C83=1),0)</f>
         <v>0</v>
@@ -2036,6 +2290,9 @@
       <c r="B84">
         <v>0</v>
       </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
       <c r="D84" cm="1">
         <f t="array" ref="D84">_xlfn.IFS(AND(B84=0,C84=1),-1,AND(B84=1,C84=0),-20,AND(B84=0,C84=0),0,AND(B84=1,C84=1),0)</f>
         <v>0</v>
@@ -2048,6 +2305,9 @@
       <c r="B85">
         <v>0</v>
       </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
       <c r="D85" cm="1">
         <f t="array" ref="D85">_xlfn.IFS(AND(B85=0,C85=1),-1,AND(B85=1,C85=0),-20,AND(B85=0,C85=0),0,AND(B85=1,C85=1),0)</f>
         <v>0</v>
@@ -2060,6 +2320,9 @@
       <c r="B86">
         <v>0</v>
       </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
       <c r="D86" cm="1">
         <f t="array" ref="D86">_xlfn.IFS(AND(B86=0,C86=1),-1,AND(B86=1,C86=0),-20,AND(B86=0,C86=0),0,AND(B86=1,C86=1),0)</f>
         <v>0</v>
@@ -2072,6 +2335,9 @@
       <c r="B87">
         <v>0</v>
       </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
       <c r="D87" cm="1">
         <f t="array" ref="D87">_xlfn.IFS(AND(B87=0,C87=1),-1,AND(B87=1,C87=0),-20,AND(B87=0,C87=0),0,AND(B87=1,C87=1),0)</f>
         <v>0</v>
@@ -2084,6 +2350,9 @@
       <c r="B88">
         <v>0</v>
       </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
       <c r="D88" cm="1">
         <f t="array" ref="D88">_xlfn.IFS(AND(B88=0,C88=1),-1,AND(B88=1,C88=0),-20,AND(B88=0,C88=0),0,AND(B88=1,C88=1),0)</f>
         <v>0</v>
@@ -2096,6 +2365,9 @@
       <c r="B89">
         <v>0</v>
       </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
       <c r="D89" cm="1">
         <f t="array" ref="D89">_xlfn.IFS(AND(B89=0,C89=1),-1,AND(B89=1,C89=0),-20,AND(B89=0,C89=0),0,AND(B89=1,C89=1),0)</f>
         <v>0</v>
@@ -2108,6 +2380,9 @@
       <c r="B90">
         <v>0</v>
       </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
       <c r="D90" cm="1">
         <f t="array" ref="D90">_xlfn.IFS(AND(B90=0,C90=1),-1,AND(B90=1,C90=0),-20,AND(B90=0,C90=0),0,AND(B90=1,C90=1),0)</f>
         <v>0</v>
@@ -2120,6 +2395,9 @@
       <c r="B91">
         <v>0</v>
       </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
       <c r="D91" cm="1">
         <f t="array" ref="D91">_xlfn.IFS(AND(B91=0,C91=1),-1,AND(B91=1,C91=0),-20,AND(B91=0,C91=0),0,AND(B91=1,C91=1),0)</f>
         <v>0</v>
@@ -2132,6 +2410,9 @@
       <c r="B92">
         <v>0</v>
       </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
       <c r="D92" cm="1">
         <f t="array" ref="D92">_xlfn.IFS(AND(B92=0,C92=1),-1,AND(B92=1,C92=0),-20,AND(B92=0,C92=0),0,AND(B92=1,C92=1),0)</f>
         <v>0</v>
@@ -2144,6 +2425,9 @@
       <c r="B93">
         <v>0</v>
       </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
       <c r="D93" cm="1">
         <f t="array" ref="D93">_xlfn.IFS(AND(B93=0,C93=1),-1,AND(B93=1,C93=0),-20,AND(B93=0,C93=0),0,AND(B93=1,C93=1),0)</f>
         <v>0</v>
@@ -2156,6 +2440,9 @@
       <c r="B94">
         <v>0</v>
       </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
       <c r="D94" cm="1">
         <f t="array" ref="D94">_xlfn.IFS(AND(B94=0,C94=1),-1,AND(B94=1,C94=0),-20,AND(B94=0,C94=0),0,AND(B94=1,C94=1),0)</f>
         <v>0</v>
@@ -2168,6 +2455,9 @@
       <c r="B95">
         <v>0</v>
       </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
       <c r="D95" cm="1">
         <f t="array" ref="D95">_xlfn.IFS(AND(B95=0,C95=1),-1,AND(B95=1,C95=0),-20,AND(B95=0,C95=0),0,AND(B95=1,C95=1),0)</f>
         <v>0</v>
@@ -2180,6 +2470,9 @@
       <c r="B96">
         <v>0</v>
       </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
       <c r="D96" cm="1">
         <f t="array" ref="D96">_xlfn.IFS(AND(B96=0,C96=1),-1,AND(B96=1,C96=0),-20,AND(B96=0,C96=0),0,AND(B96=1,C96=1),0)</f>
         <v>0</v>
@@ -2192,6 +2485,9 @@
       <c r="B97">
         <v>0</v>
       </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
       <c r="D97" cm="1">
         <f t="array" ref="D97">_xlfn.IFS(AND(B97=0,C97=1),-1,AND(B97=1,C97=0),-20,AND(B97=0,C97=0),0,AND(B97=1,C97=1),0)</f>
         <v>0</v>
@@ -2204,6 +2500,9 @@
       <c r="B98">
         <v>0</v>
       </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
       <c r="D98" cm="1">
         <f t="array" ref="D98">_xlfn.IFS(AND(B98=0,C98=1),-1,AND(B98=1,C98=0),-20,AND(B98=0,C98=0),0,AND(B98=1,C98=1),0)</f>
         <v>0</v>
@@ -2216,6 +2515,9 @@
       <c r="B99">
         <v>0</v>
       </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
       <c r="D99" cm="1">
         <f t="array" ref="D99">_xlfn.IFS(AND(B99=0,C99=1),-1,AND(B99=1,C99=0),-20,AND(B99=0,C99=0),0,AND(B99=1,C99=1),0)</f>
         <v>0</v>
@@ -2228,6 +2530,9 @@
       <c r="B100">
         <v>0</v>
       </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
       <c r="D100" cm="1">
         <f t="array" ref="D100">_xlfn.IFS(AND(B100=0,C100=1),-1,AND(B100=1,C100=0),-20,AND(B100=0,C100=0),0,AND(B100=1,C100=1),0)</f>
         <v>0</v>
@@ -2240,6 +2545,9 @@
       <c r="B101">
         <v>0</v>
       </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
       <c r="D101" cm="1">
         <f t="array" ref="D101">_xlfn.IFS(AND(B101=0,C101=1),-1,AND(B101=1,C101=0),-20,AND(B101=0,C101=0),0,AND(B101=1,C101=1),0)</f>
         <v>0</v>
@@ -2252,6 +2560,9 @@
       <c r="B102">
         <v>0</v>
       </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
       <c r="D102" cm="1">
         <f t="array" ref="D102">_xlfn.IFS(AND(B102=0,C102=1),-1,AND(B102=1,C102=0),-20,AND(B102=0,C102=0),0,AND(B102=1,C102=1),0)</f>
         <v>0</v>
@@ -2264,6 +2575,9 @@
       <c r="B103">
         <v>0</v>
       </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
       <c r="D103" cm="1">
         <f t="array" ref="D103">_xlfn.IFS(AND(B103=0,C103=1),-1,AND(B103=1,C103=0),-20,AND(B103=0,C103=0),0,AND(B103=1,C103=1),0)</f>
         <v>0</v>
@@ -2276,6 +2590,9 @@
       <c r="B104">
         <v>0</v>
       </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
       <c r="D104" cm="1">
         <f t="array" ref="D104">_xlfn.IFS(AND(B104=0,C104=1),-1,AND(B104=1,C104=0),-20,AND(B104=0,C104=0),0,AND(B104=1,C104=1),0)</f>
         <v>0</v>
@@ -2288,6 +2605,9 @@
       <c r="B105">
         <v>0</v>
       </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
       <c r="D105" cm="1">
         <f t="array" ref="D105">_xlfn.IFS(AND(B105=0,C105=1),-1,AND(B105=1,C105=0),-20,AND(B105=0,C105=0),0,AND(B105=1,C105=1),0)</f>
         <v>0</v>
@@ -2300,6 +2620,9 @@
       <c r="B106">
         <v>0</v>
       </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
       <c r="D106" cm="1">
         <f t="array" ref="D106">_xlfn.IFS(AND(B106=0,C106=1),-1,AND(B106=1,C106=0),-20,AND(B106=0,C106=0),0,AND(B106=1,C106=1),0)</f>
         <v>0</v>
@@ -2312,6 +2635,9 @@
       <c r="B107">
         <v>0</v>
       </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
       <c r="D107" cm="1">
         <f t="array" ref="D107">_xlfn.IFS(AND(B107=0,C107=1),-1,AND(B107=1,C107=0),-20,AND(B107=0,C107=0),0,AND(B107=1,C107=1),0)</f>
         <v>0</v>
@@ -2324,6 +2650,9 @@
       <c r="B108">
         <v>0</v>
       </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
       <c r="D108" cm="1">
         <f t="array" ref="D108">_xlfn.IFS(AND(B108=0,C108=1),-1,AND(B108=1,C108=0),-20,AND(B108=0,C108=0),0,AND(B108=1,C108=1),0)</f>
         <v>0</v>
@@ -2336,6 +2665,9 @@
       <c r="B109">
         <v>0</v>
       </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
       <c r="D109" cm="1">
         <f t="array" ref="D109">_xlfn.IFS(AND(B109=0,C109=1),-1,AND(B109=1,C109=0),-20,AND(B109=0,C109=0),0,AND(B109=1,C109=1),0)</f>
         <v>0</v>
@@ -2348,6 +2680,9 @@
       <c r="B110">
         <v>0</v>
       </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
       <c r="D110" cm="1">
         <f t="array" ref="D110">_xlfn.IFS(AND(B110=0,C110=1),-1,AND(B110=1,C110=0),-20,AND(B110=0,C110=0),0,AND(B110=1,C110=1),0)</f>
         <v>0</v>
@@ -2360,6 +2695,9 @@
       <c r="B111">
         <v>0</v>
       </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
       <c r="D111" cm="1">
         <f t="array" ref="D111">_xlfn.IFS(AND(B111=0,C111=1),-1,AND(B111=1,C111=0),-20,AND(B111=0,C111=0),0,AND(B111=1,C111=1),0)</f>
         <v>0</v>
@@ -2372,6 +2710,9 @@
       <c r="B112">
         <v>0</v>
       </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
       <c r="D112" cm="1">
         <f t="array" ref="D112">_xlfn.IFS(AND(B112=0,C112=1),-1,AND(B112=1,C112=0),-20,AND(B112=0,C112=0),0,AND(B112=1,C112=1),0)</f>
         <v>0</v>
@@ -2384,6 +2725,9 @@
       <c r="B113">
         <v>0</v>
       </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
       <c r="D113" cm="1">
         <f t="array" ref="D113">_xlfn.IFS(AND(B113=0,C113=1),-1,AND(B113=1,C113=0),-20,AND(B113=0,C113=0),0,AND(B113=1,C113=1),0)</f>
         <v>0</v>
@@ -2396,6 +2740,9 @@
       <c r="B114">
         <v>0</v>
       </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
       <c r="D114" cm="1">
         <f t="array" ref="D114">_xlfn.IFS(AND(B114=0,C114=1),-1,AND(B114=1,C114=0),-20,AND(B114=0,C114=0),0,AND(B114=1,C114=1),0)</f>
         <v>0</v>
@@ -2408,6 +2755,9 @@
       <c r="B115">
         <v>0</v>
       </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
       <c r="D115" cm="1">
         <f t="array" ref="D115">_xlfn.IFS(AND(B115=0,C115=1),-1,AND(B115=1,C115=0),-20,AND(B115=0,C115=0),0,AND(B115=1,C115=1),0)</f>
         <v>0</v>
@@ -2420,6 +2770,9 @@
       <c r="B116">
         <v>0</v>
       </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
       <c r="D116" cm="1">
         <f t="array" ref="D116">_xlfn.IFS(AND(B116=0,C116=1),-1,AND(B116=1,C116=0),-20,AND(B116=0,C116=0),0,AND(B116=1,C116=1),0)</f>
         <v>0</v>
@@ -2432,6 +2785,9 @@
       <c r="B117">
         <v>0</v>
       </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
       <c r="D117" cm="1">
         <f t="array" ref="D117">_xlfn.IFS(AND(B117=0,C117=1),-1,AND(B117=1,C117=0),-20,AND(B117=0,C117=0),0,AND(B117=1,C117=1),0)</f>
         <v>0</v>
@@ -2444,6 +2800,9 @@
       <c r="B118">
         <v>0</v>
       </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
       <c r="D118" cm="1">
         <f t="array" ref="D118">_xlfn.IFS(AND(B118=0,C118=1),-1,AND(B118=1,C118=0),-20,AND(B118=0,C118=0),0,AND(B118=1,C118=1),0)</f>
         <v>0</v>
@@ -2456,6 +2815,9 @@
       <c r="B119">
         <v>0</v>
       </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
       <c r="D119" cm="1">
         <f t="array" ref="D119">_xlfn.IFS(AND(B119=0,C119=1),-1,AND(B119=1,C119=0),-20,AND(B119=0,C119=0),0,AND(B119=1,C119=1),0)</f>
         <v>0</v>
@@ -2468,6 +2830,9 @@
       <c r="B120">
         <v>0</v>
       </c>
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
       <c r="D120" cm="1">
         <f t="array" ref="D120">_xlfn.IFS(AND(B120=0,C120=1),-1,AND(B120=1,C120=0),-20,AND(B120=0,C120=0),0,AND(B120=1,C120=1),0)</f>
         <v>0</v>
@@ -2480,6 +2845,9 @@
       <c r="B121">
         <v>0</v>
       </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
       <c r="D121" cm="1">
         <f t="array" ref="D121">_xlfn.IFS(AND(B121=0,C121=1),-1,AND(B121=1,C121=0),-20,AND(B121=0,C121=0),0,AND(B121=1,C121=1),0)</f>
         <v>0</v>
@@ -2492,6 +2860,9 @@
       <c r="B122">
         <v>0</v>
       </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
       <c r="D122" cm="1">
         <f t="array" ref="D122">_xlfn.IFS(AND(B122=0,C122=1),-1,AND(B122=1,C122=0),-20,AND(B122=0,C122=0),0,AND(B122=1,C122=1),0)</f>
         <v>0</v>
@@ -2504,6 +2875,9 @@
       <c r="B123">
         <v>0</v>
       </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
       <c r="D123" cm="1">
         <f t="array" ref="D123">_xlfn.IFS(AND(B123=0,C123=1),-1,AND(B123=1,C123=0),-20,AND(B123=0,C123=0),0,AND(B123=1,C123=1),0)</f>
         <v>0</v>
@@ -2516,6 +2890,9 @@
       <c r="B124">
         <v>0</v>
       </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
       <c r="D124" cm="1">
         <f t="array" ref="D124">_xlfn.IFS(AND(B124=0,C124=1),-1,AND(B124=1,C124=0),-20,AND(B124=0,C124=0),0,AND(B124=1,C124=1),0)</f>
         <v>0</v>
@@ -2528,6 +2905,9 @@
       <c r="B125">
         <v>0</v>
       </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
       <c r="D125" cm="1">
         <f t="array" ref="D125">_xlfn.IFS(AND(B125=0,C125=1),-1,AND(B125=1,C125=0),-20,AND(B125=0,C125=0),0,AND(B125=1,C125=1),0)</f>
         <v>0</v>
@@ -2540,6 +2920,9 @@
       <c r="B126">
         <v>0</v>
       </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
       <c r="D126" cm="1">
         <f t="array" ref="D126">_xlfn.IFS(AND(B126=0,C126=1),-1,AND(B126=1,C126=0),-20,AND(B126=0,C126=0),0,AND(B126=1,C126=1),0)</f>
         <v>0</v>
@@ -2552,6 +2935,9 @@
       <c r="B127">
         <v>0</v>
       </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
       <c r="D127" cm="1">
         <f t="array" ref="D127">_xlfn.IFS(AND(B127=0,C127=1),-1,AND(B127=1,C127=0),-20,AND(B127=0,C127=0),0,AND(B127=1,C127=1),0)</f>
         <v>0</v>
@@ -2564,6 +2950,9 @@
       <c r="B128">
         <v>0</v>
       </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
       <c r="D128" cm="1">
         <f t="array" ref="D128">_xlfn.IFS(AND(B128=0,C128=1),-1,AND(B128=1,C128=0),-20,AND(B128=0,C128=0),0,AND(B128=1,C128=1),0)</f>
         <v>0</v>
@@ -2576,6 +2965,9 @@
       <c r="B129">
         <v>0</v>
       </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
       <c r="D129" cm="1">
         <f t="array" ref="D129">_xlfn.IFS(AND(B129=0,C129=1),-1,AND(B129=1,C129=0),-20,AND(B129=0,C129=0),0,AND(B129=1,C129=1),0)</f>
         <v>0</v>
@@ -2588,6 +2980,9 @@
       <c r="B130">
         <v>0</v>
       </c>
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
       <c r="D130" cm="1">
         <f t="array" ref="D130">_xlfn.IFS(AND(B130=0,C130=1),-1,AND(B130=1,C130=0),-20,AND(B130=0,C130=0),0,AND(B130=1,C130=1),0)</f>
         <v>0</v>
@@ -2600,6 +2995,9 @@
       <c r="B131">
         <v>0</v>
       </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
       <c r="D131" cm="1">
         <f t="array" ref="D131">_xlfn.IFS(AND(B131=0,C131=1),-1,AND(B131=1,C131=0),-20,AND(B131=0,C131=0),0,AND(B131=1,C131=1),0)</f>
         <v>0</v>
@@ -2612,6 +3010,9 @@
       <c r="B132">
         <v>0</v>
       </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
       <c r="D132" cm="1">
         <f t="array" ref="D132">_xlfn.IFS(AND(B132=0,C132=1),-1,AND(B132=1,C132=0),-20,AND(B132=0,C132=0),0,AND(B132=1,C132=1),0)</f>
         <v>0</v>
@@ -2624,6 +3025,9 @@
       <c r="B133">
         <v>0</v>
       </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
       <c r="D133" cm="1">
         <f t="array" ref="D133">_xlfn.IFS(AND(B133=0,C133=1),-1,AND(B133=1,C133=0),-20,AND(B133=0,C133=0),0,AND(B133=1,C133=1),0)</f>
         <v>0</v>
@@ -2636,6 +3040,9 @@
       <c r="B134">
         <v>0</v>
       </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
       <c r="D134" cm="1">
         <f t="array" ref="D134">_xlfn.IFS(AND(B134=0,C134=1),-1,AND(B134=1,C134=0),-20,AND(B134=0,C134=0),0,AND(B134=1,C134=1),0)</f>
         <v>0</v>
@@ -2648,6 +3055,9 @@
       <c r="B135">
         <v>0</v>
       </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
       <c r="D135" cm="1">
         <f t="array" ref="D135">_xlfn.IFS(AND(B135=0,C135=1),-1,AND(B135=1,C135=0),-20,AND(B135=0,C135=0),0,AND(B135=1,C135=1),0)</f>
         <v>0</v>
@@ -2660,9 +3070,12 @@
       <c r="B136">
         <v>1</v>
       </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
       <c r="D136" cm="1">
         <f t="array" ref="D136">_xlfn.IFS(AND(B136=0,C136=1),-1,AND(B136=1,C136=0),-20,AND(B136=0,C136=0),0,AND(B136=1,C136=1),0)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2672,9 +3085,12 @@
       <c r="B137">
         <v>1</v>
       </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
       <c r="D137" cm="1">
         <f t="array" ref="D137">_xlfn.IFS(AND(B137=0,C137=1),-1,AND(B137=1,C137=0),-20,AND(B137=0,C137=0),0,AND(B137=1,C137=1),0)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2684,9 +3100,12 @@
       <c r="B138">
         <v>1</v>
       </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
       <c r="D138" cm="1">
         <f t="array" ref="D138">_xlfn.IFS(AND(B138=0,C138=1),-1,AND(B138=1,C138=0),-20,AND(B138=0,C138=0),0,AND(B138=1,C138=1),0)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2696,6 +3115,9 @@
       <c r="B139">
         <v>0</v>
       </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
       <c r="D139" cm="1">
         <f t="array" ref="D139">_xlfn.IFS(AND(B139=0,C139=1),-1,AND(B139=1,C139=0),-20,AND(B139=0,C139=0),0,AND(B139=1,C139=1),0)</f>
         <v>0</v>
@@ -2708,6 +3130,9 @@
       <c r="B140">
         <v>0</v>
       </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
       <c r="D140" cm="1">
         <f t="array" ref="D140">_xlfn.IFS(AND(B140=0,C140=1),-1,AND(B140=1,C140=0),-20,AND(B140=0,C140=0),0,AND(B140=1,C140=1),0)</f>
         <v>0</v>
@@ -2720,6 +3145,9 @@
       <c r="B141">
         <v>0</v>
       </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
       <c r="D141" cm="1">
         <f t="array" ref="D141">_xlfn.IFS(AND(B141=0,C141=1),-1,AND(B141=1,C141=0),-20,AND(B141=0,C141=0),0,AND(B141=1,C141=1),0)</f>
         <v>0</v>
@@ -2732,6 +3160,9 @@
       <c r="B142">
         <v>0</v>
       </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
       <c r="D142" cm="1">
         <f t="array" ref="D142">_xlfn.IFS(AND(B142=0,C142=1),-1,AND(B142=1,C142=0),-20,AND(B142=0,C142=0),0,AND(B142=1,C142=1),0)</f>
         <v>0</v>
@@ -2744,6 +3175,9 @@
       <c r="B143">
         <v>0</v>
       </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
       <c r="D143" cm="1">
         <f t="array" ref="D143">_xlfn.IFS(AND(B143=0,C143=1),-1,AND(B143=1,C143=0),-20,AND(B143=0,C143=0),0,AND(B143=1,C143=1),0)</f>
         <v>0</v>
@@ -2756,6 +3190,9 @@
       <c r="B144">
         <v>0</v>
       </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
       <c r="D144" cm="1">
         <f t="array" ref="D144">_xlfn.IFS(AND(B144=0,C144=1),-1,AND(B144=1,C144=0),-20,AND(B144=0,C144=0),0,AND(B144=1,C144=1),0)</f>
         <v>0</v>
@@ -2768,6 +3205,9 @@
       <c r="B145">
         <v>0</v>
       </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
       <c r="D145" cm="1">
         <f t="array" ref="D145">_xlfn.IFS(AND(B145=0,C145=1),-1,AND(B145=1,C145=0),-20,AND(B145=0,C145=0),0,AND(B145=1,C145=1),0)</f>
         <v>0</v>
@@ -2780,6 +3220,9 @@
       <c r="B146">
         <v>0</v>
       </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
       <c r="D146" cm="1">
         <f t="array" ref="D146">_xlfn.IFS(AND(B146=0,C146=1),-1,AND(B146=1,C146=0),-20,AND(B146=0,C146=0),0,AND(B146=1,C146=1),0)</f>
         <v>0</v>
@@ -2792,6 +3235,9 @@
       <c r="B147">
         <v>0</v>
       </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
       <c r="D147" cm="1">
         <f t="array" ref="D147">_xlfn.IFS(AND(B147=0,C147=1),-1,AND(B147=1,C147=0),-20,AND(B147=0,C147=0),0,AND(B147=1,C147=1),0)</f>
         <v>0</v>
@@ -2804,6 +3250,9 @@
       <c r="B148">
         <v>0</v>
       </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
       <c r="D148" cm="1">
         <f t="array" ref="D148">_xlfn.IFS(AND(B148=0,C148=1),-1,AND(B148=1,C148=0),-20,AND(B148=0,C148=0),0,AND(B148=1,C148=1),0)</f>
         <v>0</v>
@@ -2816,6 +3265,9 @@
       <c r="B149">
         <v>0</v>
       </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
       <c r="D149" cm="1">
         <f t="array" ref="D149">_xlfn.IFS(AND(B149=0,C149=1),-1,AND(B149=1,C149=0),-20,AND(B149=0,C149=0),0,AND(B149=1,C149=1),0)</f>
         <v>0</v>
@@ -2828,6 +3280,9 @@
       <c r="B150">
         <v>0</v>
       </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
       <c r="D150" cm="1">
         <f t="array" ref="D150">_xlfn.IFS(AND(B150=0,C150=1),-1,AND(B150=1,C150=0),-20,AND(B150=0,C150=0),0,AND(B150=1,C150=1),0)</f>
         <v>0</v>
@@ -2840,6 +3295,9 @@
       <c r="B151">
         <v>0</v>
       </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
       <c r="D151" cm="1">
         <f t="array" ref="D151">_xlfn.IFS(AND(B151=0,C151=1),-1,AND(B151=1,C151=0),-20,AND(B151=0,C151=0),0,AND(B151=1,C151=1),0)</f>
         <v>0</v>
@@ -2852,6 +3310,9 @@
       <c r="B152">
         <v>0</v>
       </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
       <c r="D152" cm="1">
         <f t="array" ref="D152">_xlfn.IFS(AND(B152=0,C152=1),-1,AND(B152=1,C152=0),-20,AND(B152=0,C152=0),0,AND(B152=1,C152=1),0)</f>
         <v>0</v>
@@ -2864,6 +3325,9 @@
       <c r="B153">
         <v>0</v>
       </c>
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
       <c r="D153" cm="1">
         <f t="array" ref="D153">_xlfn.IFS(AND(B153=0,C153=1),-1,AND(B153=1,C153=0),-20,AND(B153=0,C153=0),0,AND(B153=1,C153=1),0)</f>
         <v>0</v>
@@ -2876,6 +3340,9 @@
       <c r="B154">
         <v>0</v>
       </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
       <c r="D154" cm="1">
         <f t="array" ref="D154">_xlfn.IFS(AND(B154=0,C154=1),-1,AND(B154=1,C154=0),-20,AND(B154=0,C154=0),0,AND(B154=1,C154=1),0)</f>
         <v>0</v>
@@ -2888,6 +3355,9 @@
       <c r="B155">
         <v>0</v>
       </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
       <c r="D155" cm="1">
         <f t="array" ref="D155">_xlfn.IFS(AND(B155=0,C155=1),-1,AND(B155=1,C155=0),-20,AND(B155=0,C155=0),0,AND(B155=1,C155=1),0)</f>
         <v>0</v>
@@ -2900,6 +3370,9 @@
       <c r="B156">
         <v>0</v>
       </c>
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
       <c r="D156" cm="1">
         <f t="array" ref="D156">_xlfn.IFS(AND(B156=0,C156=1),-1,AND(B156=1,C156=0),-20,AND(B156=0,C156=0),0,AND(B156=1,C156=1),0)</f>
         <v>0</v>
@@ -2912,6 +3385,9 @@
       <c r="B157">
         <v>0</v>
       </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
       <c r="D157" cm="1">
         <f t="array" ref="D157">_xlfn.IFS(AND(B157=0,C157=1),-1,AND(B157=1,C157=0),-20,AND(B157=0,C157=0),0,AND(B157=1,C157=1),0)</f>
         <v>0</v>
@@ -2924,6 +3400,9 @@
       <c r="B158">
         <v>0</v>
       </c>
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
       <c r="D158" cm="1">
         <f t="array" ref="D158">_xlfn.IFS(AND(B158=0,C158=1),-1,AND(B158=1,C158=0),-20,AND(B158=0,C158=0),0,AND(B158=1,C158=1),0)</f>
         <v>0</v>
@@ -2936,6 +3415,9 @@
       <c r="B159">
         <v>0</v>
       </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
       <c r="D159" cm="1">
         <f t="array" ref="D159">_xlfn.IFS(AND(B159=0,C159=1),-1,AND(B159=1,C159=0),-20,AND(B159=0,C159=0),0,AND(B159=1,C159=1),0)</f>
         <v>0</v>
@@ -2948,6 +3430,9 @@
       <c r="B160">
         <v>0</v>
       </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
       <c r="D160" cm="1">
         <f t="array" ref="D160">_xlfn.IFS(AND(B160=0,C160=1),-1,AND(B160=1,C160=0),-20,AND(B160=0,C160=0),0,AND(B160=1,C160=1),0)</f>
         <v>0</v>
@@ -2960,6 +3445,9 @@
       <c r="B161">
         <v>0</v>
       </c>
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
       <c r="D161" cm="1">
         <f t="array" ref="D161">_xlfn.IFS(AND(B161=0,C161=1),-1,AND(B161=1,C161=0),-20,AND(B161=0,C161=0),0,AND(B161=1,C161=1),0)</f>
         <v>0</v>
@@ -2972,6 +3460,9 @@
       <c r="B162">
         <v>0</v>
       </c>
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
       <c r="D162" cm="1">
         <f t="array" ref="D162">_xlfn.IFS(AND(B162=0,C162=1),-1,AND(B162=1,C162=0),-20,AND(B162=0,C162=0),0,AND(B162=1,C162=1),0)</f>
         <v>0</v>
@@ -2984,6 +3475,9 @@
       <c r="B163">
         <v>0</v>
       </c>
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
       <c r="D163" cm="1">
         <f t="array" ref="D163">_xlfn.IFS(AND(B163=0,C163=1),-1,AND(B163=1,C163=0),-20,AND(B163=0,C163=0),0,AND(B163=1,C163=1),0)</f>
         <v>0</v>
@@ -2996,6 +3490,9 @@
       <c r="B164">
         <v>0</v>
       </c>
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
       <c r="D164" cm="1">
         <f t="array" ref="D164">_xlfn.IFS(AND(B164=0,C164=1),-1,AND(B164=1,C164=0),-20,AND(B164=0,C164=0),0,AND(B164=1,C164=1),0)</f>
         <v>0</v>
@@ -3008,6 +3505,9 @@
       <c r="B165">
         <v>0</v>
       </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
       <c r="D165" cm="1">
         <f t="array" ref="D165">_xlfn.IFS(AND(B165=0,C165=1),-1,AND(B165=1,C165=0),-20,AND(B165=0,C165=0),0,AND(B165=1,C165=1),0)</f>
         <v>0</v>
@@ -3020,6 +3520,9 @@
       <c r="B166">
         <v>0</v>
       </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
       <c r="D166" cm="1">
         <f t="array" ref="D166">_xlfn.IFS(AND(B166=0,C166=1),-1,AND(B166=1,C166=0),-20,AND(B166=0,C166=0),0,AND(B166=1,C166=1),0)</f>
         <v>0</v>
@@ -3032,6 +3535,9 @@
       <c r="B167">
         <v>0</v>
       </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
       <c r="D167" cm="1">
         <f t="array" ref="D167">_xlfn.IFS(AND(B167=0,C167=1),-1,AND(B167=1,C167=0),-20,AND(B167=0,C167=0),0,AND(B167=1,C167=1),0)</f>
         <v>0</v>
@@ -3044,6 +3550,9 @@
       <c r="B168">
         <v>0</v>
       </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
       <c r="D168" cm="1">
         <f t="array" ref="D168">_xlfn.IFS(AND(B168=0,C168=1),-1,AND(B168=1,C168=0),-20,AND(B168=0,C168=0),0,AND(B168=1,C168=1),0)</f>
         <v>0</v>
@@ -3056,6 +3565,9 @@
       <c r="B169">
         <v>0</v>
       </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
       <c r="D169" cm="1">
         <f t="array" ref="D169">_xlfn.IFS(AND(B169=0,C169=1),-1,AND(B169=1,C169=0),-20,AND(B169=0,C169=0),0,AND(B169=1,C169=1),0)</f>
         <v>0</v>
@@ -3068,6 +3580,9 @@
       <c r="B170">
         <v>0</v>
       </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
       <c r="D170" cm="1">
         <f t="array" ref="D170">_xlfn.IFS(AND(B170=0,C170=1),-1,AND(B170=1,C170=0),-20,AND(B170=0,C170=0),0,AND(B170=1,C170=1),0)</f>
         <v>0</v>
@@ -3080,9 +3595,12 @@
       <c r="B171">
         <v>0</v>
       </c>
+      <c r="C171" s="2">
+        <v>1</v>
+      </c>
       <c r="D171" cm="1">
         <f t="array" ref="D171">_xlfn.IFS(AND(B171=0,C171=1),-1,AND(B171=1,C171=0),-20,AND(B171=0,C171=0),0,AND(B171=1,C171=1),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3092,6 +3610,9 @@
       <c r="B172">
         <v>0</v>
       </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
       <c r="D172" cm="1">
         <f t="array" ref="D172">_xlfn.IFS(AND(B172=0,C172=1),-1,AND(B172=1,C172=0),-20,AND(B172=0,C172=0),0,AND(B172=1,C172=1),0)</f>
         <v>0</v>
@@ -3104,6 +3625,9 @@
       <c r="B173">
         <v>0</v>
       </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
       <c r="D173" cm="1">
         <f t="array" ref="D173">_xlfn.IFS(AND(B173=0,C173=1),-1,AND(B173=1,C173=0),-20,AND(B173=0,C173=0),0,AND(B173=1,C173=1),0)</f>
         <v>0</v>
@@ -3116,6 +3640,9 @@
       <c r="B174">
         <v>0</v>
       </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
       <c r="D174" cm="1">
         <f t="array" ref="D174">_xlfn.IFS(AND(B174=0,C174=1),-1,AND(B174=1,C174=0),-20,AND(B174=0,C174=0),0,AND(B174=1,C174=1),0)</f>
         <v>0</v>
@@ -3128,6 +3655,9 @@
       <c r="B175">
         <v>0</v>
       </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
       <c r="D175" cm="1">
         <f t="array" ref="D175">_xlfn.IFS(AND(B175=0,C175=1),-1,AND(B175=1,C175=0),-20,AND(B175=0,C175=0),0,AND(B175=1,C175=1),0)</f>
         <v>0</v>
@@ -3140,6 +3670,9 @@
       <c r="B176">
         <v>0</v>
       </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
       <c r="D176" cm="1">
         <f t="array" ref="D176">_xlfn.IFS(AND(B176=0,C176=1),-1,AND(B176=1,C176=0),-20,AND(B176=0,C176=0),0,AND(B176=1,C176=1),0)</f>
         <v>0</v>
@@ -3152,6 +3685,9 @@
       <c r="B177">
         <v>0</v>
       </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
       <c r="D177" cm="1">
         <f t="array" ref="D177">_xlfn.IFS(AND(B177=0,C177=1),-1,AND(B177=1,C177=0),-20,AND(B177=0,C177=0),0,AND(B177=1,C177=1),0)</f>
         <v>0</v>
@@ -3164,6 +3700,9 @@
       <c r="B178">
         <v>0</v>
       </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
       <c r="D178" cm="1">
         <f t="array" ref="D178">_xlfn.IFS(AND(B178=0,C178=1),-1,AND(B178=1,C178=0),-20,AND(B178=0,C178=0),0,AND(B178=1,C178=1),0)</f>
         <v>0</v>
@@ -3176,6 +3715,9 @@
       <c r="B179">
         <v>0</v>
       </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
       <c r="D179" cm="1">
         <f t="array" ref="D179">_xlfn.IFS(AND(B179=0,C179=1),-1,AND(B179=1,C179=0),-20,AND(B179=0,C179=0),0,AND(B179=1,C179=1),0)</f>
         <v>0</v>
@@ -3188,6 +3730,9 @@
       <c r="B180">
         <v>0</v>
       </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
       <c r="D180" cm="1">
         <f t="array" ref="D180">_xlfn.IFS(AND(B180=0,C180=1),-1,AND(B180=1,C180=0),-20,AND(B180=0,C180=0),0,AND(B180=1,C180=1),0)</f>
         <v>0</v>
@@ -3200,6 +3745,9 @@
       <c r="B181">
         <v>0</v>
       </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
       <c r="D181" cm="1">
         <f t="array" ref="D181">_xlfn.IFS(AND(B181=0,C181=1),-1,AND(B181=1,C181=0),-20,AND(B181=0,C181=0),0,AND(B181=1,C181=1),0)</f>
         <v>0</v>
@@ -3212,6 +3760,9 @@
       <c r="B182">
         <v>0</v>
       </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
       <c r="D182" cm="1">
         <f t="array" ref="D182">_xlfn.IFS(AND(B182=0,C182=1),-1,AND(B182=1,C182=0),-20,AND(B182=0,C182=0),0,AND(B182=1,C182=1),0)</f>
         <v>0</v>
@@ -3224,6 +3775,9 @@
       <c r="B183">
         <v>0</v>
       </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
       <c r="D183" cm="1">
         <f t="array" ref="D183">_xlfn.IFS(AND(B183=0,C183=1),-1,AND(B183=1,C183=0),-20,AND(B183=0,C183=0),0,AND(B183=1,C183=1),0)</f>
         <v>0</v>
@@ -3236,6 +3790,9 @@
       <c r="B184">
         <v>0</v>
       </c>
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
       <c r="D184" cm="1">
         <f t="array" ref="D184">_xlfn.IFS(AND(B184=0,C184=1),-1,AND(B184=1,C184=0),-20,AND(B184=0,C184=0),0,AND(B184=1,C184=1),0)</f>
         <v>0</v>
@@ -3248,6 +3805,9 @@
       <c r="B185">
         <v>0</v>
       </c>
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
       <c r="D185" cm="1">
         <f t="array" ref="D185">_xlfn.IFS(AND(B185=0,C185=1),-1,AND(B185=1,C185=0),-20,AND(B185=0,C185=0),0,AND(B185=1,C185=1),0)</f>
         <v>0</v>
@@ -3259,7 +3819,7 @@
       </c>
       <c r="D186">
         <f>SUM(D2:D185)</f>
-        <v>-100</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
